--- a/sample_data/assay_plates.xlsx
+++ b/sample_data/assay_plates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\drrines\Dropbox\repo\autoprotocol\apmaker\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42771663-68C0-435B-ABFF-297BC0024658}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0082D12F-5166-4BC3-9CB4-38E7B5CE1280}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6165" yWindow="5340" windowWidth="16080" windowHeight="9735" xr2:uid="{069764E6-A17E-4A12-87EC-17D884C5F00C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>A0000001</t>
   </si>
@@ -70,33 +70,6 @@
   </si>
   <si>
     <t>A0000010</t>
-  </si>
-  <si>
-    <t>A0000011</t>
-  </si>
-  <si>
-    <t>A0000012</t>
-  </si>
-  <si>
-    <t>A0000013</t>
-  </si>
-  <si>
-    <t>A0000014</t>
-  </si>
-  <si>
-    <t>A0000015</t>
-  </si>
-  <si>
-    <t>A0000016</t>
-  </si>
-  <si>
-    <t>A0000017</t>
-  </si>
-  <si>
-    <t>A0000018</t>
-  </si>
-  <si>
-    <t>A0000019</t>
   </si>
 </sst>
 </file>
@@ -448,9 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4839BC42-0FB9-4A47-B7B1-989988D08D75}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -579,105 +554,6 @@
         <v>781074</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>384</v>
-      </c>
-      <c r="C12">
-        <v>781074</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>384</v>
-      </c>
-      <c r="C13">
-        <v>781074</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>384</v>
-      </c>
-      <c r="C14">
-        <v>781074</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>384</v>
-      </c>
-      <c r="C15">
-        <v>781074</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>384</v>
-      </c>
-      <c r="C16">
-        <v>781074</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>384</v>
-      </c>
-      <c r="C17">
-        <v>781074</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>384</v>
-      </c>
-      <c r="C18">
-        <v>781074</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>384</v>
-      </c>
-      <c r="C19">
-        <v>781074</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>384</v>
-      </c>
-      <c r="C20">
-        <v>781074</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
